--- a/data/casos.xlsx
+++ b/data/casos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="casos" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="66">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -217,6 +217,9 @@
     <t xml:space="preserve">2020-04-05</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-04-06</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-XX-XX</t>
   </si>
 </sst>
@@ -319,10 +322,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E851"/>
+  <dimension ref="A1:E876"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A755" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G815" activeCellId="0" sqref="G815"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A832" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H850" activeCellId="0" sqref="H850"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14799,6 +14802,431 @@
         <v>0</v>
       </c>
       <c r="E851" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A852" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B852" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C852" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="D852" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E852" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A853" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B853" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C853" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D853" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E853" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A854" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B854" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C854" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D854" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E854" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A855" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B855" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C855" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D855" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E855" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A856" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B856" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C856" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D856" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E856" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A857" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B857" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C857" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D857" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E857" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A858" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B858" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C858" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D858" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E858" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A859" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B859" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C859" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D859" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E859" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A860" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B860" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C860" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D860" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E860" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A861" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B861" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C861" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D861" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E861" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A862" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B862" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C862" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D862" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E862" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A863" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B863" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C863" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D863" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E863" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A864" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B864" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C864" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D864" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E864" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A865" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B865" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C865" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D865" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E865" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A866" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B866" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E866" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A867" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B867" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C867" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D867" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E867" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A868" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B868" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C868" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D868" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E868" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A869" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B869" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C869" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D869" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E869" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A870" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B870" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C870" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D870" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E870" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A871" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B871" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C871" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D871" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E871" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A872" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B872" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C872" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D872" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E872" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A873" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B873" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C873" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D873" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E873" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A874" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B874" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C874" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D874" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E874" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A875" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B875" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C875" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D875" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E875" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A876" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B876" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C876" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D876" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E876" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14821,7 +15249,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14850,7 +15278,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -14867,7 +15295,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
@@ -14884,7 +15312,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>8</v>
@@ -14901,7 +15329,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -14918,7 +15346,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
@@ -14935,7 +15363,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>11</v>
@@ -14952,7 +15380,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>12</v>
@@ -14969,7 +15397,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>13</v>
@@ -14986,7 +15414,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>14</v>
@@ -15003,7 +15431,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>15</v>
@@ -15020,7 +15448,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>16</v>
@@ -15037,7 +15465,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>17</v>
@@ -15054,7 +15482,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>18</v>
@@ -15071,7 +15499,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>19</v>
@@ -15088,7 +15516,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>20</v>
@@ -15105,7 +15533,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>21</v>
@@ -15122,7 +15550,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>22</v>
@@ -15139,7 +15567,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>23</v>
@@ -15156,7 +15584,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>24</v>
@@ -15173,7 +15601,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>25</v>
@@ -15190,7 +15618,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>26</v>
@@ -15207,7 +15635,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>27</v>
@@ -15224,7 +15652,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>28</v>
@@ -15241,7 +15669,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>29</v>
@@ -15258,7 +15686,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>30</v>
@@ -15588,10 +16016,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15698,6 +16126,23 @@
         <v>1</v>
       </c>
       <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/casos.xlsx
+++ b/data/casos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="casos" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="67">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -220,6 +220,9 @@
     <t xml:space="preserve">2020-04-06</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-04-07</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-XX-XX</t>
   </si>
 </sst>
@@ -322,10 +325,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E876"/>
+  <dimension ref="A1:E901"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A832" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H850" activeCellId="0" sqref="H850"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A864" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B903" activeCellId="1" sqref="C2:E26 B903"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15227,6 +15230,431 @@
         <v>0</v>
       </c>
       <c r="E876" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A877" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B877" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C877" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="D877" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E877" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A878" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B878" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C878" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D878" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E878" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A879" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B879" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C879" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D879" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E879" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A880" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B880" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C880" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D880" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E880" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A881" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B881" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C881" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D881" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E881" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A882" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B882" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C882" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D882" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E882" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A883" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B883" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C883" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D883" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E883" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A884" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B884" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C884" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D884" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E884" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A885" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B885" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C885" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D885" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E885" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A886" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B886" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C886" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D886" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E886" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A887" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B887" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C887" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D887" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E887" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A888" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B888" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C888" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D888" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E888" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A889" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B889" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C889" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D889" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E889" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A890" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B890" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C890" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D890" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E890" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A891" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B891" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C891" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D891" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E891" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A892" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B892" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C892" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D892" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E892" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A893" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B893" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C893" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D893" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E893" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A894" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B894" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C894" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D894" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E894" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A895" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B895" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C895" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D895" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E895" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A896" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B896" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C896" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D896" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E896" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A897" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B897" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C897" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D897" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E897" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A898" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B898" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C898" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D898" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E898" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A899" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B899" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C899" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D899" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E899" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A900" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B900" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C900" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D900" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E900" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A901" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B901" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C901" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D901" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E901" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15248,8 +15676,8 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15278,7 +15706,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -15295,7 +15723,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
@@ -15312,7 +15740,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>8</v>
@@ -15329,7 +15757,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -15346,7 +15774,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
@@ -15363,7 +15791,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>11</v>
@@ -15380,7 +15808,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>12</v>
@@ -15397,7 +15825,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>13</v>
@@ -15414,7 +15842,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>14</v>
@@ -15431,7 +15859,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>15</v>
@@ -15448,7 +15876,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>16</v>
@@ -15465,7 +15893,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>17</v>
@@ -15482,7 +15910,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>18</v>
@@ -15499,7 +15927,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>19</v>
@@ -15516,7 +15944,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>20</v>
@@ -15533,7 +15961,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>21</v>
@@ -15550,7 +15978,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>22</v>
@@ -15567,7 +15995,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>23</v>
@@ -15584,7 +16012,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>24</v>
@@ -15601,7 +16029,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>25</v>
@@ -15618,7 +16046,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>26</v>
@@ -15635,7 +16063,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>27</v>
@@ -15652,7 +16080,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>28</v>
@@ -15669,7 +16097,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>29</v>
@@ -15686,7 +16114,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>30</v>
@@ -15720,7 +16148,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:E26 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16016,10 +16444,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="C2:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16143,6 +16571,74 @@
         <v>2</v>
       </c>
       <c r="E7" s="0" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/casos.xlsx
+++ b/data/casos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="casos" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="68">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -225,6 +225,9 @@
   <si>
     <t xml:space="preserve">2020-XX-XX</t>
   </si>
+  <si>
+    <t xml:space="preserve">2020-04-08</t>
+  </si>
 </sst>
 </file>
 
@@ -328,7 +331,7 @@
   <dimension ref="A1:E901"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A864" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B903" activeCellId="1" sqref="C2:E26 B903"/>
+      <selection pane="topLeft" activeCell="B903" activeCellId="0" sqref="B903"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15676,8 +15679,8 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16148,7 +16151,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:E26 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16444,10 +16447,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="C2:E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16640,6 +16643,23 @@
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/casos.xlsx
+++ b/data/casos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="67">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -225,9 +225,6 @@
   <si>
     <t xml:space="preserve">2020-XX-XX</t>
   </si>
-  <si>
-    <t xml:space="preserve">2020-04-08</t>
-  </si>
 </sst>
 </file>
 
@@ -331,7 +328,7 @@
   <dimension ref="A1:E901"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A864" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B903" activeCellId="0" sqref="B903"/>
+      <selection pane="topLeft" activeCell="B903" activeCellId="1" sqref="A12:E12 B903"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15680,7 +15677,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="A12:E12 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16151,7 +16148,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A12:E12 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16447,10 +16444,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16643,23 +16640,6 @@
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/casos.xlsx
+++ b/data/casos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="casos" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="68">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -223,6 +223,9 @@
     <t xml:space="preserve">2020-04-07</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-04-08</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-XX-XX</t>
   </si>
 </sst>
@@ -325,10 +328,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E901"/>
+  <dimension ref="A1:E926"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A864" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B903" activeCellId="1" sqref="A12:E12 B903"/>
+      <selection pane="topLeft" activeCell="A902" activeCellId="1" sqref="C2:E26 A902"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15655,6 +15658,431 @@
         <v>0</v>
       </c>
       <c r="E901" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A902" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B902" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C902" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D902" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E902" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A903" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B903" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C903" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D903" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E903" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A904" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B904" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C904" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D904" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E904" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A905" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B905" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C905" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D905" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E905" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A906" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B906" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C906" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D906" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E906" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A907" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B907" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C907" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D907" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E907" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A908" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B908" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C908" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D908" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E908" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A909" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B909" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C909" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D909" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E909" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A910" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B910" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C910" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D910" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E910" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A911" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B911" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C911" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D911" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E911" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A912" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B912" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C912" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D912" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E912" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A913" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B913" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C913" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D913" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E913" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A914" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B914" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C914" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D914" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E914" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A915" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B915" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C915" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D915" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E915" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A916" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B916" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C916" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D916" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E916" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A917" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B917" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C917" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D917" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E917" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A918" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B918" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C918" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D918" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E918" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A919" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B919" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C919" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D919" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E919" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A920" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B920" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C920" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D920" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E920" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A921" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B921" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C921" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D921" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E921" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A922" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B922" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C922" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D922" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E922" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A923" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B923" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C923" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D923" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E923" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A924" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B924" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C924" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D924" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E924" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A925" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B925" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C925" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D925" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E925" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A926" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B926" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C926" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D926" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E926" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15676,8 +16104,8 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="A12:E12 C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15706,7 +16134,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -15723,7 +16151,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
@@ -15740,7 +16168,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>8</v>
@@ -15757,7 +16185,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -15774,7 +16202,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
@@ -15791,7 +16219,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>11</v>
@@ -15808,7 +16236,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>12</v>
@@ -15825,7 +16253,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>13</v>
@@ -15842,7 +16270,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>14</v>
@@ -15859,7 +16287,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>15</v>
@@ -15876,7 +16304,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>16</v>
@@ -15893,7 +16321,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>17</v>
@@ -15910,7 +16338,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>18</v>
@@ -15927,7 +16355,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>19</v>
@@ -15944,7 +16372,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>20</v>
@@ -15961,7 +16389,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>21</v>
@@ -15978,7 +16406,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>22</v>
@@ -15995,7 +16423,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>23</v>
@@ -16012,7 +16440,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>24</v>
@@ -16029,7 +16457,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>25</v>
@@ -16046,7 +16474,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>26</v>
@@ -16063,7 +16491,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>27</v>
@@ -16080,7 +16508,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>28</v>
@@ -16097,7 +16525,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>29</v>
@@ -16114,7 +16542,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>30</v>
@@ -16148,7 +16576,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A12:E12 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:E26 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16444,10 +16872,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12:E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="C2:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16640,6 +17068,23 @@
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/casos.xlsx
+++ b/data/casos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="69">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -226,6 +226,9 @@
     <t xml:space="preserve">2020-04-08</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-04-09</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-XX-XX</t>
   </si>
 </sst>
@@ -328,10 +331,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E926"/>
+  <dimension ref="A1:E951"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A864" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A902" activeCellId="1" sqref="C2:E26 A902"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A888" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A927" activeCellId="1" sqref="C2:E26 A927"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16083,6 +16086,431 @@
         <v>1</v>
       </c>
       <c r="E926" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A927" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B927" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C927" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="D927" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E927" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A928" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B928" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C928" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D928" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E928" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A929" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B929" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C929" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="D929" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E929" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A930" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B930" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C930" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D930" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E930" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A931" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B931" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C931" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D931" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E931" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A932" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B932" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C932" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D932" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E932" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A933" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B933" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C933" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D933" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E933" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A934" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B934" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C934" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D934" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E934" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A935" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B935" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C935" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D935" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E935" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A936" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B936" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C936" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D936" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E936" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A937" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B937" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C937" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D937" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E937" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A938" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B938" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C938" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D938" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E938" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A939" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B939" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C939" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D939" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E939" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A940" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B940" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C940" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D940" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E940" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A941" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B941" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C941" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D941" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E941" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A942" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B942" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C942" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D942" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E942" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A943" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B943" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C943" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D943" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E943" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A944" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B944" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C944" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D944" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E944" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A945" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B945" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C945" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D945" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E945" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A946" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B946" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C946" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D946" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E946" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A947" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B947" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C947" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D947" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E947" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A948" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B948" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C948" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D948" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E948" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A949" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B949" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C949" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D949" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E949" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A950" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B950" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C950" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D950" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E950" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A951" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B951" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C951" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D951" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E951" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16134,7 +16562,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -16151,7 +16579,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
@@ -16168,7 +16596,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>8</v>
@@ -16185,7 +16613,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -16202,7 +16630,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
@@ -16219,7 +16647,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>11</v>
@@ -16236,7 +16664,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>12</v>
@@ -16253,7 +16681,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>13</v>
@@ -16270,7 +16698,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>14</v>
@@ -16287,7 +16715,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>15</v>
@@ -16304,7 +16732,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>16</v>
@@ -16321,7 +16749,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>17</v>
@@ -16338,7 +16766,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>18</v>
@@ -16355,7 +16783,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>19</v>
@@ -16372,7 +16800,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>20</v>
@@ -16389,7 +16817,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>21</v>
@@ -16406,7 +16834,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>22</v>
@@ -16423,7 +16851,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>23</v>
@@ -16440,7 +16868,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>24</v>
@@ -16457,7 +16885,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>25</v>
@@ -16474,7 +16902,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>26</v>
@@ -16491,7 +16919,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>27</v>
@@ -16508,7 +16936,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>28</v>
@@ -16525,7 +16953,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>29</v>
@@ -16542,7 +16970,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>30</v>
@@ -16872,10 +17300,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="C2:E26"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C2:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17085,6 +17513,57 @@
       </c>
       <c r="E12" s="0" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/casos.xlsx
+++ b/data/casos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="70">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -229,6 +229,9 @@
     <t xml:space="preserve">2020-04-09</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-04-10</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-XX-XX</t>
   </si>
 </sst>
@@ -331,10 +334,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E951"/>
+  <dimension ref="A1:E976"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A888" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A927" activeCellId="1" sqref="C2:E26 A927"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A922" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A952" activeCellId="1" sqref="C2:E26 A952"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16511,6 +16514,431 @@
         <v>0</v>
       </c>
       <c r="E951" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A952" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B952" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C952" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="D952" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E952" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A953" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B953" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C953" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D953" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E953" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A954" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B954" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C954" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D954" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E954" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A955" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B955" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C955" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D955" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E955" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A956" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B956" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C956" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D956" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E956" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A957" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B957" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C957" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D957" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E957" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A958" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B958" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C958" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D958" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E958" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A959" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B959" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C959" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D959" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E959" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A960" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B960" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C960" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D960" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E960" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A961" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B961" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C961" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D961" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E961" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A962" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B962" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C962" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D962" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E962" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A963" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B963" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C963" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D963" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E963" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A964" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B964" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C964" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D964" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E964" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A965" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B965" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C965" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D965" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E965" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A966" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B966" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C966" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D966" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E966" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A967" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B967" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C967" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D967" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E967" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A968" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B968" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C968" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D968" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E968" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A969" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B969" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C969" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D969" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E969" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A970" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B970" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C970" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D970" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E970" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A971" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B971" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C971" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D971" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E971" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A972" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B972" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C972" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D972" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E972" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A973" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B973" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C973" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D973" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E973" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A974" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B974" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C974" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D974" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E974" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A975" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B975" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C975" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D975" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E975" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A976" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B976" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C976" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D976" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E976" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16562,7 +16990,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -16579,7 +17007,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
@@ -16596,7 +17024,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>8</v>
@@ -16613,7 +17041,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -16630,7 +17058,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
@@ -16647,7 +17075,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>11</v>
@@ -16664,7 +17092,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>12</v>
@@ -16681,7 +17109,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>13</v>
@@ -16698,7 +17126,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>14</v>
@@ -16715,7 +17143,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>15</v>
@@ -16732,7 +17160,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>16</v>
@@ -16749,7 +17177,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>17</v>
@@ -16766,7 +17194,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>18</v>
@@ -16783,7 +17211,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>19</v>
@@ -16800,7 +17228,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>20</v>
@@ -16817,7 +17245,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>21</v>
@@ -16834,7 +17262,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>22</v>
@@ -16851,7 +17279,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>23</v>
@@ -16868,7 +17296,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>24</v>
@@ -16885,7 +17313,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>25</v>
@@ -16902,7 +17330,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>26</v>
@@ -16919,7 +17347,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>27</v>
@@ -16936,7 +17364,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>28</v>
@@ -16953,7 +17381,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>29</v>
@@ -16970,7 +17398,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>30</v>
@@ -17300,10 +17728,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C2:E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="C2:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17564,6 +17992,23 @@
       </c>
       <c r="E15" s="0" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/casos.xlsx
+++ b/data/casos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="71">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -232,6 +232,9 @@
     <t xml:space="preserve">2020-04-10</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-04-11</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-XX-XX</t>
   </si>
 </sst>
@@ -334,10 +337,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E976"/>
+  <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A922" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A952" activeCellId="1" sqref="C2:E26 A952"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A958" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A977" activeCellId="1" sqref="C2:E26 A977"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16939,6 +16942,431 @@
         <v>0</v>
       </c>
       <c r="E976" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A977" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B977" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C977" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="D977" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E977" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A978" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B978" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C978" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="D978" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E978" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A979" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B979" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C979" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="D979" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E979" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A980" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B980" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C980" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D980" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E980" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A981" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B981" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C981" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D981" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E981" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A982" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B982" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C982" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D982" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E982" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A983" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B983" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C983" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D983" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E983" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A984" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B984" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C984" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="D984" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E984" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A985" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B985" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C985" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D985" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E985" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A986" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B986" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C986" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D986" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E986" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A987" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B987" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C987" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D987" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E987" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A988" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B988" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C988" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D988" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E988" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A989" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B989" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C989" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D989" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E989" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A990" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B990" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C990" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D990" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E990" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A991" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B991" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C991" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D991" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E991" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A992" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B992" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C992" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D992" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E992" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A993" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B993" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C993" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D993" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E993" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A994" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B994" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C994" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D994" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E994" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A995" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B995" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C995" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D995" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E995" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A996" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B996" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C996" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D996" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E996" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A997" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B997" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C997" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D997" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E997" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A998" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B998" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C998" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D998" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E998" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A999" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B999" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C999" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D999" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E999" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1000" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1000" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1000" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1000" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1000" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1001" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1001" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1001" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1001" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1001" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16990,7 +17418,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -17007,7 +17435,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
@@ -17024,7 +17452,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>8</v>
@@ -17041,7 +17469,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -17058,7 +17486,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
@@ -17075,7 +17503,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>11</v>
@@ -17092,7 +17520,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>12</v>
@@ -17109,7 +17537,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>13</v>
@@ -17126,7 +17554,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>14</v>
@@ -17143,7 +17571,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>15</v>
@@ -17160,7 +17588,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>16</v>
@@ -17177,7 +17605,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>17</v>
@@ -17194,7 +17622,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>18</v>
@@ -17211,7 +17639,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>19</v>
@@ -17228,7 +17656,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>20</v>
@@ -17245,7 +17673,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>21</v>
@@ -17262,7 +17690,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>22</v>
@@ -17279,7 +17707,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>23</v>
@@ -17296,7 +17724,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>24</v>
@@ -17313,7 +17741,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>25</v>
@@ -17330,7 +17758,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>26</v>
@@ -17347,7 +17775,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>27</v>
@@ -17364,7 +17792,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>28</v>
@@ -17381,7 +17809,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>29</v>
@@ -17398,7 +17826,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>30</v>
@@ -17728,10 +18156,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="C2:E26"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="C2:E26 A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18009,6 +18437,40 @@
       </c>
       <c r="E16" s="0" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/casos.xlsx
+++ b/data/casos.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="casos" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="reporte_vespertino" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="dummy" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="casos_fix" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="casos_vespertinos" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="reporte_fix" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="reporte_matutino" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="74">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -235,6 +235,15 @@
     <t xml:space="preserve">2020-04-11</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-04-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-14</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-XX-XX</t>
   </si>
 </sst>
@@ -337,10 +346,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1001"/>
+  <dimension ref="A1:E1076"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A958" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A977" activeCellId="1" sqref="C2:E26 A977"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1038" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1053" activeCellId="0" sqref="B1053"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17367,6 +17376,1281 @@
         <v>0</v>
       </c>
       <c r="E1001" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1002" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1002" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1002" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="D1002" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1002" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1003" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1003" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1003" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1003" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1003" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1004" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1004" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1004" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="D1004" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1004" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1005" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1005" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1005" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1005" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1005" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1006" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1006" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1006" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1006" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1006" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1007" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1007" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1007" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1007" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1007" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1008" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1008" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1008" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1008" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1008" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1009" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1009" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1009" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1009" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1009" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1010" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1010" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1010" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D1010" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1010" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1011" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1011" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1011" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1011" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1011" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1012" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1012" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1012" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1012" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1012" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1013" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1013" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1013" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1013" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1013" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1014" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1014" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1014" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1014" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1014" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1015" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1015" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1015" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1015" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1015" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1016" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1016" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1016" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1016" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1016" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1017" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1017" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1017" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1017" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1017" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1018" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1018" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1018" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1018" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1018" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1019" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1019" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1019" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1019" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1019" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1020" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1020" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1020" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1020" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1020" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1021" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1021" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1021" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1021" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1021" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1022" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1022" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1022" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1022" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1022" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1023" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1023" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1023" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1023" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1023" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1024" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1024" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1024" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1024" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1024" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1025" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1025" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1025" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1025" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1025" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1026" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1026" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1026" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1026" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1026" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1027" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1027" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1027" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="D1027" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1027" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1028" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1028" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1028" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1028" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1028" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1029" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1029" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1029" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="D1029" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1029" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1030" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1030" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1030" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1030" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1030" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1031" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1031" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1031" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1031" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1031" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1032" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1032" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1032" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1032" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1032" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1033" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1033" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1033" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1033" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1033" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1034" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1034" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1034" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1034" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1034" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1035" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1035" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1035" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1035" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1035" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1036" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1036" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1036" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1036" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1036" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1037" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1037" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1037" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1037" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1037" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1038" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1038" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1038" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1038" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1038" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1039" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1039" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1039" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1039" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1039" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1040" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1040" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1040" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1040" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1040" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1041" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1041" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1041" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1041" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1041" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1042" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1042" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1042" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1042" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1042" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1043" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1043" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1043" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1043" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1043" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1044" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1044" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1044" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1044" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1044" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1045" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1045" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1045" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1045" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1045" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1046" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1046" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1046" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1046" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1046" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1047" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1047" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1047" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1047" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1047" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1048" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1048" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1048" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1048" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1048" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1049" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1049" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1049" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1049" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1049" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1050" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1050" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1050" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1050" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1050" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1051" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1051" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1051" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1051" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1051" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1052" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1052" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1052" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="D1052" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1052" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1053" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1053" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1053" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D1053" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1053" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1054" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1054" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1054" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="D1054" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1054" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1055" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1055" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1055" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1055" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1055" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1056" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1056" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1056" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="D1056" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1056" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1057" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1057" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1057" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1057" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1057" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1058" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1058" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1058" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1058" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1058" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1059" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1059" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1059" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1059" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1059" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1060" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1060" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1060" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1060" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1060" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1061" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1061" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1061" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1061" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1061" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1062" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1062" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1062" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1062" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1062" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1063" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1063" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1063" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1063" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1063" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1064" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1064" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1064" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1064" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1064" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1065" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1065" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1065" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1065" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1065" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1066" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1066" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1066" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1066" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1066" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1067" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1067" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1067" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1067" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1067" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1068" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1068" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1068" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1068" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1068" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1069" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1069" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1069" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1069" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1069" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1070" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1070" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1070" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1070" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1070" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1071" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1071" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1071" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1071" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1071" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1072" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1072" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1072" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1072" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1072" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1073" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1073" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1073" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1073" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1073" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1074" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1074" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1074" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1074" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1074" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1075" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1075" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1075" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1075" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1075" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1076" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1076" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1076" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1076" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1076" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17388,8 +18672,8 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17418,7 +18702,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -17435,7 +18719,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
@@ -17452,7 +18736,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>8</v>
@@ -17469,7 +18753,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -17486,7 +18770,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
@@ -17503,7 +18787,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>11</v>
@@ -17520,7 +18804,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>12</v>
@@ -17537,7 +18821,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>13</v>
@@ -17554,7 +18838,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>14</v>
@@ -17571,7 +18855,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>15</v>
@@ -17588,7 +18872,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>16</v>
@@ -17605,7 +18889,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>17</v>
@@ -17622,7 +18906,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>18</v>
@@ -17639,7 +18923,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>19</v>
@@ -17656,7 +18940,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>20</v>
@@ -17673,7 +18957,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>21</v>
@@ -17690,7 +18974,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>22</v>
@@ -17707,7 +18991,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>23</v>
@@ -17724,7 +19008,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>24</v>
@@ -17741,7 +19025,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>25</v>
@@ -17758,7 +19042,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>26</v>
@@ -17775,7 +19059,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>27</v>
@@ -17792,7 +19076,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>28</v>
@@ -17809,7 +19093,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>29</v>
@@ -17826,7 +19110,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>30</v>
@@ -17859,8 +19143,8 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:E26 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18156,10 +19440,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="C2:E26 A18"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18470,6 +19754,125 @@
         <v>1</v>
       </c>
       <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/casos.xlsx
+++ b/data/casos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="75">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -244,6 +244,9 @@
     <t xml:space="preserve">2020-04-14</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-04-15</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-XX-XX</t>
   </si>
 </sst>
@@ -346,10 +349,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1076"/>
+  <dimension ref="A1:E1101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1038" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1053" activeCellId="0" sqref="B1053"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1055" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1101" activeCellId="0" sqref="C1101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18651,6 +18654,431 @@
         <v>0</v>
       </c>
       <c r="E1076" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1077" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1077" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1077" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="D1077" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1077" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1078" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1078" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1078" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D1078" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1078" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1079" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1079" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1079" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="D1079" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1079" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1080" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1080" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1080" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1080" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1080" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1081" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1081" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1081" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1081" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1081" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1082" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1082" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1082" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1082" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1082" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1083" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1083" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1083" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D1083" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1083" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1084" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1084" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1084" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1084" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1084" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1085" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1085" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1085" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1085" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1085" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1086" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1086" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1086" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1086" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1086" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1087" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1087" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1087" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1087" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1087" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1088" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1088" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1088" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1088" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1088" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1089" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1089" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1089" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1089" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1089" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1090" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1090" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1090" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1090" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1090" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1091" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1091" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1091" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1091" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1091" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1092" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1092" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1092" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1092" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1092" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1093" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1093" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1093" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1093" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1093" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1094" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1094" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1094" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1094" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1094" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1095" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1095" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1095" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1095" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1095" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1096" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1096" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1096" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1096" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1096" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1097" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1097" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1097" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1097" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1097" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1098" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1098" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1098" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1098" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1098" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1099" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1099" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1099" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1099" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1099" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1100" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1100" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1100" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1100" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1101" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1101" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1101" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18702,7 +19130,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -18719,7 +19147,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
@@ -18736,7 +19164,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>8</v>
@@ -18753,7 +19181,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -18770,7 +19198,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
@@ -18787,7 +19215,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>11</v>
@@ -18804,7 +19232,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>12</v>
@@ -18821,7 +19249,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>13</v>
@@ -18838,7 +19266,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>14</v>
@@ -18855,7 +19283,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>15</v>
@@ -18872,7 +19300,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>16</v>
@@ -18889,7 +19317,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>17</v>
@@ -18906,7 +19334,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>18</v>
@@ -18923,7 +19351,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>19</v>
@@ -18940,7 +19368,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>20</v>
@@ -18957,7 +19385,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>21</v>
@@ -18974,7 +19402,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>22</v>
@@ -18991,7 +19419,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>23</v>
@@ -19008,7 +19436,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>24</v>
@@ -19025,7 +19453,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>25</v>
@@ -19042,7 +19470,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>26</v>
@@ -19059,7 +19487,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>27</v>
@@ -19076,7 +19504,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>28</v>
@@ -19093,7 +19521,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>29</v>
@@ -19110,7 +19538,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>30</v>
@@ -19440,10 +19868,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19873,6 +20301,57 @@
         <v>1</v>
       </c>
       <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/casos.xlsx
+++ b/data/casos.xlsx
@@ -352,7 +352,7 @@
   <dimension ref="A1:E1101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1055" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1101" activeCellId="0" sqref="C1101"/>
+      <selection pane="topLeft" activeCell="D1077" activeCellId="0" sqref="D1077"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/casos.xlsx
+++ b/data/casos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="76">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -247,6 +247,9 @@
     <t xml:space="preserve">2020-04-15</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-04-16</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-XX-XX</t>
   </si>
 </sst>
@@ -349,10 +352,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1101"/>
+  <dimension ref="A1:E1126"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1055" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1077" activeCellId="0" sqref="D1077"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1091" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1101" activeCellId="0" sqref="B1101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19079,6 +19082,431 @@
         <v>0</v>
       </c>
       <c r="E1101" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1102" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1102" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1102" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="D1102" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1102" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1103" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1103" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1103" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D1103" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1103" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1104" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1104" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1104" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D1104" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1104" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1105" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1105" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1105" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1106" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1106" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1106" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1106" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1107" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1107" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1107" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1108" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1108" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1108" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1109" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1109" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1109" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1109" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1110" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1110" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1110" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1111" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1111" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1111" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1112" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1112" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1112" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1113" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1113" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1113" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1114" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1114" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1114" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1114" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1115" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1115" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1115" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1115" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1115" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1116" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1116" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1116" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1117" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1117" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1117" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1117" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1118" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1118" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1118" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1118" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1119" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1119" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1119" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D1119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1119" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1120" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1120" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1120" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1121" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1121" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1121" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1122" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1122" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1122" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1123" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1123" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1123" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1123" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1124" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1124" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1124" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1125" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1125" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1125" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1125" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1126" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1126" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1126" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19130,7 +19558,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -19147,7 +19575,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
@@ -19164,7 +19592,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>8</v>
@@ -19181,7 +19609,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -19198,7 +19626,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
@@ -19215,7 +19643,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>11</v>
@@ -19232,7 +19660,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>12</v>
@@ -19249,7 +19677,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>13</v>
@@ -19266,7 +19694,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>14</v>
@@ -19283,7 +19711,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>15</v>
@@ -19300,7 +19728,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>16</v>
@@ -19317,7 +19745,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>17</v>
@@ -19334,7 +19762,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>18</v>
@@ -19351,7 +19779,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>19</v>
@@ -19368,7 +19796,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>20</v>
@@ -19385,7 +19813,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>21</v>
@@ -19402,7 +19830,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>22</v>
@@ -19419,7 +19847,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>23</v>
@@ -19436,7 +19864,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>24</v>
@@ -19453,7 +19881,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>25</v>
@@ -19470,7 +19898,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>26</v>
@@ -19487,7 +19915,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>27</v>
@@ -19504,7 +19932,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>28</v>
@@ -19521,7 +19949,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>29</v>
@@ -19538,7 +19966,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>30</v>
@@ -19868,10 +20296,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20352,6 +20780,57 @@
         <v>1</v>
       </c>
       <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/casos.xlsx
+++ b/data/casos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="77">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -250,6 +250,9 @@
     <t xml:space="preserve">2020-04-16</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-04-17</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-XX-XX</t>
   </si>
 </sst>
@@ -352,10 +355,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1126"/>
+  <dimension ref="A1:E1151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1091" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1101" activeCellId="0" sqref="B1101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1151" activeCellId="0" sqref="D1151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19507,6 +19510,431 @@
         <v>0</v>
       </c>
       <c r="E1126" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1127" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1127" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1127" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="D1127" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1127" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1128" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1128" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1128" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1128" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1128" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1129" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1129" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1129" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D1129" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1129" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1130" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1130" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1130" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1131" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1131" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1131" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D1131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1131" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1132" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1132" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1132" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D1132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1132" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1133" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1133" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1133" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1134" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1134" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1134" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1134" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1135" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1135" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1135" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1136" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1136" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1136" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1137" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1137" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1137" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1138" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1138" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1138" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1139" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1139" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1139" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1139" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1139" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1140" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1140" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1140" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1140" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1140" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1141" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1141" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1141" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1141" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1142" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1142" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1142" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1142" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1143" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1143" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1143" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1143" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1144" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1144" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1144" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1145" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1145" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1145" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1146" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1146" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1146" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1147" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1147" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1147" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1148" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1148" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1148" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1148" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1149" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1149" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1149" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1150" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1150" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1150" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1150" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1151" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1151" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1151" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1151" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1151" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19558,7 +19986,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -19575,7 +20003,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
@@ -19592,7 +20020,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>8</v>
@@ -19609,7 +20037,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -19626,7 +20054,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
@@ -19643,7 +20071,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>11</v>
@@ -19660,7 +20088,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>12</v>
@@ -19677,7 +20105,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>13</v>
@@ -19694,7 +20122,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>14</v>
@@ -19711,7 +20139,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>15</v>
@@ -19728,7 +20156,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>16</v>
@@ -19745,7 +20173,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>17</v>
@@ -19762,7 +20190,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>18</v>
@@ -19779,7 +20207,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>19</v>
@@ -19796,7 +20224,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>20</v>
@@ -19813,7 +20241,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>21</v>
@@ -19830,7 +20258,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>22</v>
@@ -19847,7 +20275,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>23</v>
@@ -19864,7 +20292,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>24</v>
@@ -19881,7 +20309,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>25</v>
@@ -19898,7 +20326,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>26</v>
@@ -19915,7 +20343,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>27</v>
@@ -19932,7 +20360,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>28</v>
@@ -19949,7 +20377,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>29</v>
@@ -19966,7 +20394,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>30</v>
@@ -20296,10 +20724,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20832,6 +21260,23 @@
       </c>
       <c r="E31" s="0" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/casos.xlsx
+++ b/data/casos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_vespertino" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="77">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -357,8 +357,8 @@
   </sheetPr>
   <dimension ref="A1:E1151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1151" activeCellId="0" sqref="D1151"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1129" activeCellId="0" sqref="A1129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20425,10 +20425,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20705,6 +20705,23 @@
         <v>0</v>
       </c>
       <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/casos.xlsx
+++ b/data/casos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="77">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -358,7 +358,7 @@
   <dimension ref="A1:E1151"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1129" activeCellId="0" sqref="A1129"/>
+      <selection pane="topLeft" activeCell="A1129" activeCellId="1" sqref="A17:E17 A1129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19957,7 +19957,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A17:E17 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20425,10 +20425,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20722,6 +20722,23 @@
         <v>0</v>
       </c>
       <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20744,7 +20761,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+      <selection pane="topLeft" activeCell="A32" activeCellId="1" sqref="A17:E17 A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/casos.xlsx
+++ b/data/casos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_vespertino" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="78">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -253,6 +253,9 @@
     <t xml:space="preserve">2020-04-17</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-04-18</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-XX-XX</t>
   </si>
 </sst>
@@ -355,10 +358,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1151"/>
+  <dimension ref="A1:E1176"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1129" activeCellId="1" sqref="A17:E17 A1129"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1132" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1158" activeCellId="1" sqref="C2:E26 B1158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19935,6 +19938,431 @@
         <v>0</v>
       </c>
       <c r="E1151" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1152" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1152" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1152" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="D1152" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1152" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1153" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1153" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1153" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="D1153" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1153" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1154" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1154" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1154" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1154" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1154" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1155" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1155" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1155" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1155" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1155" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1156" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1156" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1156" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D1156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1156" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1157" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1157" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1157" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1157" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1157" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1158" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1158" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1158" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1158" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1158" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1159" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1159" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1159" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1160" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1160" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1160" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1161" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1161" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1161" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1162" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1162" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1162" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1162" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1162" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1163" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1163" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1163" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1164" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1164" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1164" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1165" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1165" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1165" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1165" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1165" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1166" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1166" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1166" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1166" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1166" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1167" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1167" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1167" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1167" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1168" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1168" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1168" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1168" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1168" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1169" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1169" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1169" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1170" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1170" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1170" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1170" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1170" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1171" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1171" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1171" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1171" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1171" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1172" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1172" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1172" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1172" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1172" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1173" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1173" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1173" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1173" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1174" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1174" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1174" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1175" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1175" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1175" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1176" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1176" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1176" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19956,8 +20384,8 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A17:E17 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19986,7 +20414,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -20003,10 +20431,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -20020,10 +20448,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -20037,7 +20465,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -20054,7 +20482,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
@@ -20071,7 +20499,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>11</v>
@@ -20088,10 +20516,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -20105,10 +20533,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -20122,7 +20550,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>14</v>
@@ -20139,7 +20567,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>15</v>
@@ -20156,7 +20584,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>16</v>
@@ -20173,7 +20601,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>17</v>
@@ -20190,7 +20618,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>18</v>
@@ -20207,7 +20635,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>19</v>
@@ -20224,7 +20652,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>20</v>
@@ -20241,7 +20669,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>21</v>
@@ -20258,7 +20686,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>22</v>
@@ -20275,7 +20703,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>23</v>
@@ -20292,7 +20720,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>24</v>
@@ -20309,7 +20737,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>25</v>
@@ -20326,7 +20754,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>26</v>
@@ -20343,7 +20771,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>27</v>
@@ -20360,7 +20788,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>28</v>
@@ -20377,7 +20805,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>29</v>
@@ -20394,7 +20822,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>30</v>
@@ -20427,8 +20855,8 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17:E17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="1" sqref="C2:E26 A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20758,10 +21186,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="1" sqref="A17:E17 A32"/>
+      <selection pane="topLeft" activeCell="A33" activeCellId="1" sqref="C2:E26 A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21311,6 +21739,23 @@
       </c>
       <c r="E32" s="0" t="n">
         <v>35</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/casos.xlsx
+++ b/data/casos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_vespertino" sheetId="1" state="visible" r:id="rId2"/>
@@ -361,7 +361,7 @@
   <dimension ref="A1:E1176"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1132" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1158" activeCellId="1" sqref="C2:E26 B1158"/>
+      <selection pane="topLeft" activeCell="B1158" activeCellId="0" sqref="B1158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20384,8 +20384,8 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20856,7 +20856,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="1" sqref="C2:E26 A17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21188,8 +21188,8 @@
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="1" sqref="C2:E26 A33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/casos.xlsx
+++ b/data/casos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_vespertino" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="79">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -256,6 +256,9 @@
     <t xml:space="preserve">2020-04-18</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-04-19</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-XX-XX</t>
   </si>
 </sst>
@@ -358,10 +361,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1176"/>
+  <dimension ref="A1:E1201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1132" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1158" activeCellId="1" sqref="C2:E26 B1158"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1160" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1201" activeCellId="0" sqref="A1201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20363,6 +20366,431 @@
         <v>0</v>
       </c>
       <c r="E1176" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1177" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1177" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1177" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="D1177" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1177" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1178" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1178" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1178" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="D1178" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1178" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1179" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1179" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1179" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D1179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1179" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1180" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1180" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1180" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1181" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1181" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1181" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1181" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1182" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1182" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1182" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1182" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1183" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1183" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1183" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1183" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1183" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1184" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1184" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1184" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1185" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1185" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1185" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1186" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1186" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1186" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1187" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1187" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1187" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1188" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1188" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1188" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1189" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1189" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1189" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1189" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1190" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1190" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1190" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1190" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1191" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1191" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1191" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1192" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1192" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1192" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1192" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1193" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1193" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1193" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1193" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1194" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1194" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1194" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1195" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1195" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1195" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1196" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1196" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1196" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1197" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1197" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1197" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1198" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1198" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1198" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1198" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1199" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1199" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1199" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1200" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1200" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1200" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1200" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1201" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1201" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1201" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20384,8 +20812,8 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20414,7 +20842,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -20431,7 +20859,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>8</v>
@@ -20448,7 +20876,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
@@ -20465,7 +20893,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -20482,7 +20910,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
@@ -20499,7 +20927,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>11</v>
@@ -20516,7 +20944,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>13</v>
@@ -20533,7 +20961,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>12</v>
@@ -20550,7 +20978,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>14</v>
@@ -20567,7 +20995,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>15</v>
@@ -20584,7 +21012,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>16</v>
@@ -20601,7 +21029,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>17</v>
@@ -20618,7 +21046,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>18</v>
@@ -20635,7 +21063,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>19</v>
@@ -20652,7 +21080,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>20</v>
@@ -20669,7 +21097,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>21</v>
@@ -20686,7 +21114,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>22</v>
@@ -20703,7 +21131,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>23</v>
@@ -20720,7 +21148,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>24</v>
@@ -20737,7 +21165,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>25</v>
@@ -20754,7 +21182,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>26</v>
@@ -20771,7 +21199,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>27</v>
@@ -20788,7 +21216,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>28</v>
@@ -20805,7 +21233,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>29</v>
@@ -20822,7 +21250,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>30</v>
@@ -20856,7 +21284,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="1" sqref="C2:E26 A17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21186,10 +21614,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="1" sqref="C2:E26 A33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21756,6 +22184,23 @@
       </c>
       <c r="E33" s="0" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/casos.xlsx
+++ b/data/casos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2626" uniqueCount="80">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -259,6 +259,9 @@
     <t xml:space="preserve">2020-04-19</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-04-20</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-XX-XX</t>
   </si>
 </sst>
@@ -365,7 +368,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1201"/>
+  <dimension ref="A1:E1226"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
@@ -14369,7 +14372,7 @@
         <v>0</v>
       </c>
       <c r="E823" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14794,7 +14797,7 @@
         <v>0</v>
       </c>
       <c r="E848" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15219,7 +15222,7 @@
         <v>0</v>
       </c>
       <c r="E873" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15644,7 +15647,7 @@
         <v>0</v>
       </c>
       <c r="E898" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16069,7 +16072,7 @@
         <v>0</v>
       </c>
       <c r="E923" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16494,7 +16497,7 @@
         <v>1</v>
       </c>
       <c r="E948" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17344,7 +17347,7 @@
         <v>0</v>
       </c>
       <c r="E998" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18194,7 +18197,7 @@
         <v>0</v>
       </c>
       <c r="E1048" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18619,7 +18622,7 @@
         <v>0</v>
       </c>
       <c r="E1073" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19044,7 +19047,7 @@
         <v>0</v>
       </c>
       <c r="E1098" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19469,7 +19472,7 @@
         <v>0</v>
       </c>
       <c r="E1123" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19894,7 +19897,7 @@
         <v>0</v>
       </c>
       <c r="E1148" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20319,7 +20322,7 @@
         <v>0</v>
       </c>
       <c r="E1173" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20744,7 +20747,7 @@
         <v>0</v>
       </c>
       <c r="E1198" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20795,6 +20798,431 @@
         <v>0</v>
       </c>
       <c r="E1201" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1202" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1202" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1202" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D1202" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1202" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1203" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1203" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1203" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="D1203" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1203" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1204" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1204" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1204" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D1204" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1204" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1205" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1205" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1205" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1206" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1206" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1206" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1206" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1207" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1207" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1207" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1207" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1207" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1208" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1208" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1208" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1208" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1208" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1209" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1209" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1209" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1209" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1209" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1210" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1210" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1210" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1210" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1210" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1211" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1211" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1211" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1211" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1211" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1212" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1212" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1212" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1212" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1212" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1213" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1213" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1213" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1213" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1213" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1214" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1214" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1214" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1214" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1214" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1215" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1215" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1215" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1215" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1215" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1216" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1216" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1216" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1216" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1216" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1217" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1217" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1217" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1217" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1217" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1218" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1218" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1218" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1218" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1218" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1219" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1219" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1219" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1219" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1219" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1220" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1220" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1220" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1220" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1220" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1221" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1221" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1221" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1221" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1221" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1222" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1222" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1222" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1222" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1222" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1223" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1223" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1223" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1223" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1223" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1224" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1224" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1224" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1224" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1224" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1225" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1225" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1225" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1225" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1225" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1226" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1226" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1226" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1226" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1226" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20846,7 +21274,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -20863,7 +21291,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>8</v>
@@ -20880,7 +21308,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
@@ -20897,7 +21325,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -20914,7 +21342,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
@@ -20931,7 +21359,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>11</v>
@@ -20948,7 +21376,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>13</v>
@@ -20965,7 +21393,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>12</v>
@@ -20982,7 +21410,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>14</v>
@@ -20999,7 +21427,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>15</v>
@@ -21016,7 +21444,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>16</v>
@@ -21033,7 +21461,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>17</v>
@@ -21050,7 +21478,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>18</v>
@@ -21067,7 +21495,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>19</v>
@@ -21084,7 +21512,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>20</v>
@@ -21101,7 +21529,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>21</v>
@@ -21118,7 +21546,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>22</v>
@@ -21135,7 +21563,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>23</v>
@@ -21152,7 +21580,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>24</v>
@@ -21169,7 +21597,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>25</v>
@@ -21186,7 +21614,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>26</v>
@@ -21203,7 +21631,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>27</v>
@@ -21220,7 +21648,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>28</v>
@@ -21237,7 +21665,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>29</v>
@@ -21254,7 +21682,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>30</v>
@@ -21618,10 +22046,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B35" activeCellId="1" sqref="1:1 B35"/>
+      <selection pane="topLeft" activeCell="A37" activeCellId="1" sqref="1:1 A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22205,6 +22633,57 @@
       </c>
       <c r="E34" s="0" t="n">
         <v>24</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/casos.xlsx
+++ b/data/casos.xlsx
@@ -370,7 +370,7 @@
   </sheetPr>
   <dimension ref="A1:E1226"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A246" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
@@ -13505,7 +13505,7 @@
         <v>1</v>
       </c>
       <c r="E772" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14661,7 +14661,7 @@
         <v>0</v>
       </c>
       <c r="E840" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15086,7 +15086,7 @@
         <v>0</v>
       </c>
       <c r="E865" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17211,7 +17211,7 @@
         <v>0</v>
       </c>
       <c r="E990" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18486,7 +18486,7 @@
         <v>0</v>
       </c>
       <c r="E1065" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19336,7 +19336,7 @@
         <v>1</v>
       </c>
       <c r="E1115" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21036,7 +21036,7 @@
         <v>0</v>
       </c>
       <c r="E1215" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/casos.xlsx
+++ b/data/casos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2626" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="81">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -262,6 +262,9 @@
     <t xml:space="preserve">2020-04-20</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-04-21</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-XX-XX</t>
   </si>
 </sst>
@@ -368,9 +371,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1226"/>
+  <dimension ref="A1:E1251"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A246" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
@@ -12859,7 +12862,7 @@
         <v>0</v>
       </c>
       <c r="E734" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15834,7 +15837,7 @@
         <v>0</v>
       </c>
       <c r="E909" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16259,7 +16262,7 @@
         <v>0</v>
       </c>
       <c r="E934" s="0" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16684,7 +16687,7 @@
         <v>0</v>
       </c>
       <c r="E959" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17109,7 +17112,7 @@
         <v>0</v>
       </c>
       <c r="E984" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18384,7 +18387,7 @@
         <v>1</v>
       </c>
       <c r="E1059" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20067,7 +20070,7 @@
         <v>0</v>
       </c>
       <c r="E1158" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20492,7 +20495,7 @@
         <v>1</v>
       </c>
       <c r="E1183" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20917,7 +20920,7 @@
         <v>2</v>
       </c>
       <c r="E1208" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21223,6 +21226,431 @@
         <v>0</v>
       </c>
       <c r="E1226" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1227" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1227" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1227" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="D1227" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1227" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1228" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1228" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1228" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D1228" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1228" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1229" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1229" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1229" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="D1229" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1229" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1230" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1230" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1230" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1230" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1230" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1231" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1231" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1231" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1231" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1231" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1232" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1232" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1232" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1232" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1232" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1233" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1233" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1233" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1233" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1233" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1234" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1234" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1234" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1234" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1234" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1235" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1235" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1235" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1235" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1235" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1236" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1236" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1236" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1236" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1236" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1237" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1237" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1237" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1237" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1237" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1238" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1238" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1238" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1238" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1238" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1239" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1239" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1239" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1239" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1239" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1240" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1240" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1240" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1240" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1240" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1241" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1241" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1241" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1241" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1241" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1242" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1242" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1242" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1242" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1242" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1243" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1243" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1243" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1243" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1243" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1244" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1244" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1244" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1244" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1244" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1245" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1245" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1245" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1245" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1245" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1246" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1246" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1246" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1246" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1246" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1247" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1247" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1247" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1247" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1247" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1248" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1248" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1248" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1248" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1248" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1249" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1249" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1249" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1249" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1249" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1250" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1250" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1250" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1250" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1250" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1251" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1251" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1251" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1251" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1251" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21274,7 +21702,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -21291,7 +21719,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>8</v>
@@ -21308,7 +21736,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
@@ -21325,7 +21753,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -21342,7 +21770,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
@@ -21359,7 +21787,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>11</v>
@@ -21376,7 +21804,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>13</v>
@@ -21393,7 +21821,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>12</v>
@@ -21410,7 +21838,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>14</v>
@@ -21427,7 +21855,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>15</v>
@@ -21444,7 +21872,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>16</v>
@@ -21461,7 +21889,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>17</v>
@@ -21478,7 +21906,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>18</v>
@@ -21495,7 +21923,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>19</v>
@@ -21512,7 +21940,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>20</v>
@@ -21529,7 +21957,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>21</v>
@@ -21546,7 +21974,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>22</v>
@@ -21563,7 +21991,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>23</v>
@@ -21580,7 +22008,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>24</v>
@@ -21597,7 +22025,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>25</v>
@@ -21614,7 +22042,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>26</v>
@@ -21631,7 +22059,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>27</v>
@@ -21648,7 +22076,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>28</v>
@@ -21665,7 +22093,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>29</v>
@@ -21682,7 +22110,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>30</v>
@@ -22046,10 +22474,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="1" sqref="1:1 A37"/>
+      <selection pane="topLeft" activeCell="E39" activeCellId="1" sqref="1:1 E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22683,6 +23111,40 @@
         <v>1</v>
       </c>
       <c r="E37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/casos.xlsx
+++ b/data/casos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="82">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -265,6 +265,9 @@
     <t xml:space="preserve">2020-04-21</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-04-22</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-XX-XX</t>
   </si>
 </sst>
@@ -371,10 +374,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1251"/>
+  <dimension ref="A1:E1276"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1239" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1249" activeCellId="0" sqref="G1249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13100,7 +13103,7 @@
         <v>0</v>
       </c>
       <c r="E748" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13542,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="E774" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15140,7 +15143,7 @@
         <v>0</v>
       </c>
       <c r="E868" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16177,7 +16180,7 @@
         <v>6</v>
       </c>
       <c r="E929" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16840,7 +16843,7 @@
         <v>1</v>
       </c>
       <c r="E968" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18965,7 +18968,7 @@
         <v>0</v>
       </c>
       <c r="E1093" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19390,7 +19393,7 @@
         <v>0</v>
       </c>
       <c r="E1118" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19815,7 +19818,7 @@
         <v>0</v>
       </c>
       <c r="E1143" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19985,7 +19988,7 @@
         <v>2</v>
       </c>
       <c r="E1153" s="0" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20240,7 +20243,7 @@
         <v>0</v>
       </c>
       <c r="E1168" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20665,7 +20668,7 @@
         <v>0</v>
       </c>
       <c r="E1193" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21515,7 +21518,7 @@
         <v>0</v>
       </c>
       <c r="E1243" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21651,6 +21654,431 @@
         <v>0</v>
       </c>
       <c r="E1251" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1252" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1252" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1252" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="D1252" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1252" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1253" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1253" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1253" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="D1253" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1253" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1254" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1254" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1254" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="D1254" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1254" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1255" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1255" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1255" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1255" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1255" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1256" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1256" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1256" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1256" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1256" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1257" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1257" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1257" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1257" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1257" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1258" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1258" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1258" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1258" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1258" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1259" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1259" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1259" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1259" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1259" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1260" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1260" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1260" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1260" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1260" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1261" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1261" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1261" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1261" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1261" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1262" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1262" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1262" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1262" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1262" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1263" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1263" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1263" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1263" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1263" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1264" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1264" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1264" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1264" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1264" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1265" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1265" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1265" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1265" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1265" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1266" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1266" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1266" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1266" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1266" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1267" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1267" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1267" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1267" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1267" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1268" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1268" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1268" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D1268" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1268" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1269" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1269" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1269" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1269" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1269" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1270" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1270" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1270" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1270" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1270" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1271" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1271" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1271" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1271" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1271" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1272" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1272" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1272" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1272" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1272" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1273" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1273" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1273" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1273" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1273" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1274" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1274" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1274" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1274" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1274" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1275" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1275" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1275" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1275" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1275" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1276" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1276" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1276" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1276" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1276" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21673,7 +22101,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="1:1 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21702,7 +22130,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -21719,7 +22147,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>8</v>
@@ -21736,7 +22164,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
@@ -21753,7 +22181,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -21770,7 +22198,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
@@ -21787,7 +22215,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>11</v>
@@ -21804,7 +22232,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>13</v>
@@ -21821,7 +22249,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>12</v>
@@ -21838,7 +22266,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>14</v>
@@ -21855,7 +22283,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>15</v>
@@ -21872,7 +22300,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>16</v>
@@ -21889,7 +22317,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>17</v>
@@ -21906,7 +22334,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>18</v>
@@ -21923,7 +22351,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>19</v>
@@ -21940,7 +22368,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>20</v>
@@ -21957,7 +22385,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>21</v>
@@ -21974,7 +22402,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>22</v>
@@ -21991,7 +22419,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>23</v>
@@ -22008,7 +22436,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>24</v>
@@ -22025,7 +22453,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>25</v>
@@ -22042,7 +22470,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>26</v>
@@ -22059,7 +22487,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>27</v>
@@ -22076,7 +22504,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>28</v>
@@ -22093,7 +22521,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>29</v>
@@ -22110,7 +22538,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>30</v>
@@ -22144,7 +22572,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="1" sqref="1:1 A17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22474,10 +22902,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E39" activeCellId="1" sqref="1:1 E39"/>
+      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23145,6 +23573,40 @@
         <v>3</v>
       </c>
       <c r="E39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/casos.xlsx
+++ b/data/casos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="83">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -268,6 +268,9 @@
     <t xml:space="preserve">2020-04-22</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-04-23</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-XX-XX</t>
   </si>
 </sst>
@@ -374,10 +377,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1276"/>
+  <dimension ref="A1:E1301"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1239" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1249" activeCellId="0" sqref="G1249"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1266" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1294" activeCellId="0" sqref="E1294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22079,6 +22082,431 @@
         <v>0</v>
       </c>
       <c r="E1276" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1277" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1277" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1277" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="D1277" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1277" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1278" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1278" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1278" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="D1278" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1278" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1279" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1279" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1279" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="D1279" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1279" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1280" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1280" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1280" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1280" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1280" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1281" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1281" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1281" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1281" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1281" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1282" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1282" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1282" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1282" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1282" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1283" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1283" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1283" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1283" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1283" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1284" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1284" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1284" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1284" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1284" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1285" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1285" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1285" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1285" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1285" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1286" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1286" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1286" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1286" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1286" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1287" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1287" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1287" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1287" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1287" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1288" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1288" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1288" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1288" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1288" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1289" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1289" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1289" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1289" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1289" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1290" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1290" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1290" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1290" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1290" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1291" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1291" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1291" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1291" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1291" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1292" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1292" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1292" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1292" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1292" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1293" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1293" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1293" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1293" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1293" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1294" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1294" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1294" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1294" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1294" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1295" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1295" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1295" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1295" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1295" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1296" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1296" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1296" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1296" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1296" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1297" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1297" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1297" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1297" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1297" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1298" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1298" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1298" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1298" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1298" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1299" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1299" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1299" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1299" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1299" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1300" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1300" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1300" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1300" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1300" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1301" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1301" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1301" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1301" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1301" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22130,7 +22558,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -22147,7 +22575,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>8</v>
@@ -22164,7 +22592,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
@@ -22181,7 +22609,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -22198,7 +22626,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
@@ -22215,7 +22643,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>11</v>
@@ -22232,7 +22660,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>13</v>
@@ -22249,7 +22677,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>12</v>
@@ -22266,7 +22694,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>14</v>
@@ -22283,7 +22711,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>15</v>
@@ -22300,7 +22728,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>16</v>
@@ -22317,7 +22745,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>17</v>
@@ -22334,7 +22762,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>18</v>
@@ -22351,7 +22779,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>19</v>
@@ -22368,7 +22796,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>20</v>
@@ -22385,7 +22813,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>21</v>
@@ -22402,7 +22830,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>22</v>
@@ -22419,7 +22847,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>23</v>
@@ -22436,7 +22864,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>24</v>
@@ -22453,7 +22881,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>25</v>
@@ -22470,7 +22898,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>26</v>
@@ -22487,7 +22915,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>27</v>
@@ -22504,7 +22932,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>28</v>
@@ -22521,7 +22949,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>29</v>
@@ -22538,7 +22966,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>30</v>
@@ -22569,10 +22997,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22883,6 +23311,40 @@
         <v>0</v>
       </c>
       <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22902,10 +23364,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23608,6 +24070,23 @@
       </c>
       <c r="E41" s="0" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/data/casos.xlsx
+++ b/data/casos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="90">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -271,6 +271,27 @@
     <t xml:space="preserve">2020-04-23</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-04-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-30</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-XX-XX</t>
   </si>
 </sst>
@@ -362,12 +383,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -377,20 +398,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1301"/>
+  <dimension ref="A1:E1476"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1266" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1294" activeCellId="0" sqref="E1294"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4691,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="E253" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5133,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="E279" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5541,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="E303" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5966,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="E328" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6391,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="E353" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7258,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="E404" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7683,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="E429" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8091,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="E453" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8516,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="E478" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8958,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="E504" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9383,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="E529" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9825,7 +9845,7 @@
         <v>1</v>
       </c>
       <c r="E555" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10216,7 +10236,7 @@
         <v>1</v>
       </c>
       <c r="E578" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10641,7 +10661,7 @@
         <v>1</v>
       </c>
       <c r="E603" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11066,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="E628" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11525,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="E655" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11933,7 +11953,7 @@
         <v>0</v>
       </c>
       <c r="E679" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12358,7 +12378,7 @@
         <v>0</v>
       </c>
       <c r="E704" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12817,7 +12837,7 @@
         <v>0</v>
       </c>
       <c r="E731" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13208,7 +13228,7 @@
         <v>0</v>
       </c>
       <c r="E754" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13616,7 +13636,7 @@
         <v>0</v>
       </c>
       <c r="E778" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14041,7 +14061,7 @@
         <v>0</v>
       </c>
       <c r="E803" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14415,7 +14435,7 @@
         <v>0</v>
       </c>
       <c r="E825" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14466,7 +14486,7 @@
         <v>0</v>
       </c>
       <c r="E828" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14840,7 +14860,7 @@
         <v>0</v>
       </c>
       <c r="E850" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14891,7 +14911,7 @@
         <v>3</v>
       </c>
       <c r="E853" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15316,7 +15336,7 @@
         <v>2</v>
       </c>
       <c r="E878" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15690,7 +15710,7 @@
         <v>0</v>
       </c>
       <c r="E900" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15741,7 +15761,7 @@
         <v>2</v>
       </c>
       <c r="E903" s="0" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16115,7 +16135,7 @@
         <v>0</v>
       </c>
       <c r="E925" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16166,7 +16186,7 @@
         <v>2</v>
       </c>
       <c r="E928" s="0" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16404,7 +16424,7 @@
         <v>0</v>
       </c>
       <c r="E942" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16540,7 +16560,7 @@
         <v>0</v>
       </c>
       <c r="E950" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16591,7 +16611,7 @@
         <v>1</v>
       </c>
       <c r="E953" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16965,7 +16985,7 @@
         <v>0</v>
       </c>
       <c r="E975" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17016,7 +17036,7 @@
         <v>2</v>
       </c>
       <c r="E978" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17441,7 +17461,7 @@
         <v>1</v>
       </c>
       <c r="E1003" s="0" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17815,7 +17835,7 @@
         <v>0</v>
       </c>
       <c r="E1025" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17866,7 +17886,7 @@
         <v>1</v>
       </c>
       <c r="E1028" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18104,7 +18124,7 @@
         <v>0</v>
       </c>
       <c r="E1042" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18291,7 +18311,7 @@
         <v>1</v>
       </c>
       <c r="E1053" s="0" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18529,7 +18549,7 @@
         <v>0</v>
       </c>
       <c r="E1067" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18665,7 +18685,7 @@
         <v>0</v>
       </c>
       <c r="E1075" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18716,7 +18736,7 @@
         <v>1</v>
       </c>
       <c r="E1078" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18954,7 +18974,7 @@
         <v>0</v>
       </c>
       <c r="E1092" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19141,7 +19161,7 @@
         <v>2</v>
       </c>
       <c r="E1103" s="0" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19379,7 +19399,7 @@
         <v>0</v>
       </c>
       <c r="E1117" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19515,7 +19535,7 @@
         <v>0</v>
       </c>
       <c r="E1125" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19566,7 +19586,7 @@
         <v>1</v>
       </c>
       <c r="E1128" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19940,7 +19960,7 @@
         <v>0</v>
       </c>
       <c r="E1150" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20008,7 +20028,7 @@
         <v>1</v>
       </c>
       <c r="E1154" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20365,7 +20385,7 @@
         <v>0</v>
       </c>
       <c r="E1175" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20433,7 +20453,7 @@
         <v>0</v>
       </c>
       <c r="E1179" s="0" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20858,7 +20878,7 @@
         <v>1</v>
       </c>
       <c r="E1204" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21215,7 +21235,7 @@
         <v>0</v>
       </c>
       <c r="E1225" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21283,7 +21303,7 @@
         <v>3</v>
       </c>
       <c r="E1229" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21504,7 +21524,7 @@
         <v>0</v>
       </c>
       <c r="E1242" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21640,7 +21660,7 @@
         <v>0</v>
       </c>
       <c r="E1250" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21708,7 +21728,7 @@
         <v>1</v>
       </c>
       <c r="E1254" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21929,7 +21949,7 @@
         <v>0</v>
       </c>
       <c r="E1267" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22065,7 +22085,7 @@
         <v>0</v>
       </c>
       <c r="E1275" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22133,7 +22153,7 @@
         <v>1</v>
       </c>
       <c r="E1279" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22490,7 +22510,7 @@
         <v>0</v>
       </c>
       <c r="E1300" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22507,6 +22527,2981 @@
         <v>0</v>
       </c>
       <c r="E1301" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1302" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1302" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1302" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="D1302" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1302" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1303" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1303" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1303" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="D1303" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1303" s="0" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1304" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1304" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1304" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="D1304" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1304" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1305" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1305" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1305" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1305" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1305" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1306" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1306" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1306" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1306" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1306" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1307" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1307" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1307" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1307" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1307" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1308" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1308" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1308" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1308" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1308" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1309" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1309" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1309" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1309" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1309" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1310" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1310" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1310" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1310" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1310" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1311" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1311" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1311" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1311" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1311" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1312" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1312" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1312" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1312" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1312" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1313" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1313" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1313" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1313" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1313" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1314" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1314" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1314" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1314" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1314" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1315" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1315" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1315" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1315" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1315" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1316" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1316" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1316" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1316" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1316" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1317" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1317" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1317" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1317" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1317" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1318" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1318" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1318" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1318" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1318" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1319" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1319" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1319" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1319" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1319" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1320" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1320" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1320" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1320" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1320" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1321" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1321" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1321" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1321" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1321" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1322" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1322" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1322" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1322" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1322" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1323" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1323" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1323" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1323" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1323" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1324" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1324" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1324" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1324" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1324" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1325" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1325" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1325" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1325" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1325" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1326" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1326" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1326" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D1326" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1326" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1327" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1327" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1327" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="D1327" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1327" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1328" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1328" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1328" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="D1328" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1328" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1329" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1329" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1329" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="D1329" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1329" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1330" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1330" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1330" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1330" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1330" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1331" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1331" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1331" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1331" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1331" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1332" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1332" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1332" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1332" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1332" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1333" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1333" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1333" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1333" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1333" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1334" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1334" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1334" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1334" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1334" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1335" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1335" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1335" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1335" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1335" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1336" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1336" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1336" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1336" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1336" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1337" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1337" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1337" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1337" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1337" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1338" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1338" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1338" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1338" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1338" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1339" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1339" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1339" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1339" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1339" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1340" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1340" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1340" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1340" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1340" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1341" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1341" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1341" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1341" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1341" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1342" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1342" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1342" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1342" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1342" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1343" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1343" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1343" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1343" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1343" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1344" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1344" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1344" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1344" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1344" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1345" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1345" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1345" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1345" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1345" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1346" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1346" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1346" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1346" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1346" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1347" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1347" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1347" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1347" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1347" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1348" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1348" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1348" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1348" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1348" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1349" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1349" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1349" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1349" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1349" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1350" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1350" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1350" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1350" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1350" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1351" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1351" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1351" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1351" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1351" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1352" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1352" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1352" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="D1352" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1352" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1353" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1353" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1353" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="D1353" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1353" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1354" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1354" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1354" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="D1354" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1354" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1355" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1355" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1355" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1355" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1355" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1356" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1356" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1356" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1356" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1356" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1357" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1357" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1357" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1357" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1357" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1358" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1358" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1358" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1358" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1358" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1359" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1359" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1359" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1359" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1359" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1360" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1360" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1360" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1360" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1360" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1361" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1361" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1361" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1361" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1361" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1362" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1362" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1362" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1362" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1362" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1363" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1363" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1363" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1363" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1363" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1364" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1364" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1364" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1364" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1364" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1365" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1365" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1365" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1365" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1365" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1366" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1366" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1366" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1366" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1366" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1367" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1367" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1367" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1367" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1367" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1368" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1368" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1368" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1368" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1368" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1369" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1369" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1369" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1369" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1369" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1370" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1370" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1370" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1370" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1370" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1371" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1371" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1371" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1371" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1371" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1372" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1372" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1372" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1372" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1372" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1373" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1373" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1373" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1373" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1373" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1374" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1374" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1374" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1374" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1374" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1375" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1375" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1375" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1375" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1375" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1376" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1376" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1376" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1376" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1376" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1377" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1377" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1377" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="D1377" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1377" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1378" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1378" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1378" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D1378" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1378" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1379" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1379" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1379" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="D1379" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1379" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1380" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1380" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1380" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1380" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1380" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1381" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1381" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1381" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1381" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1381" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1382" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1382" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1382" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1382" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1382" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1383" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1383" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1383" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1383" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1383" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1384" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1384" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1384" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1384" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1384" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1385" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1385" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1385" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1385" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1385" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1386" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1386" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1386" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1386" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1386" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1387" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1387" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1387" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1387" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1387" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1388" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1388" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1388" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1388" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1388" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1389" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1389" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1389" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1389" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1389" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1390" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1390" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1390" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1390" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1390" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1391" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1391" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1391" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1391" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1391" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1392" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1392" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1392" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1392" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1392" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1393" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1393" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1393" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1393" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1393" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1394" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1394" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1394" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1394" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1394" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1395" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1395" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1395" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1395" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1395" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1396" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1396" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1396" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1396" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1396" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1397" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1397" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1397" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1397" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1397" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1398" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1398" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1398" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1398" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1398" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1399" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1399" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1399" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1399" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1399" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1400" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1400" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1400" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1400" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1400" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1401" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1401" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1401" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1401" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1401" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1402" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1402" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1402" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="D1402" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1402" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1403" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1403" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1403" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="D1403" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1403" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1404" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1404" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1404" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D1404" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1404" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1405" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1405" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1405" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1405" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1405" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1406" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1406" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1406" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1406" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1406" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1407" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1407" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1407" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1407" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1407" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1408" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1408" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1408" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1408" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1408" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1409" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1409" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1409" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1409" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1409" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1410" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1410" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1410" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1410" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1410" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1411" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1411" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1411" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1411" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1411" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1412" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1412" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1412" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1412" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1412" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1413" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1413" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1413" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1413" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1413" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1414" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1414" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1414" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1414" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1414" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1415" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1415" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1415" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1415" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1415" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1416" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1416" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1416" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1416" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1416" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1417" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1417" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1417" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1417" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1417" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1418" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1418" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1418" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1418" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1418" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1419" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1419" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1419" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1419" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1419" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1420" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1420" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1420" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1420" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1420" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1421" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1421" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1421" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1421" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1421" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1422" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1422" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1422" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1422" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1422" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1423" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1423" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1423" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1423" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1423" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1424" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1424" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1424" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1424" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1424" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1425" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1425" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1425" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1425" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1425" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1426" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1426" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1426" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1426" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1426" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1427" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1427" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1427" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="D1427" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1427" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1428" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1428" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1428" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="D1428" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1428" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1429" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1429" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1429" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D1429" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1429" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1430" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1430" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1430" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1430" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1430" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1431" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1431" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1431" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1431" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1431" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1432" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1432" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1432" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1432" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1432" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1433" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1433" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1433" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1433" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1433" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1434" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1434" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1434" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1434" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1434" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1435" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1435" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1435" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1435" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1435" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1436" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1436" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1436" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1436" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1436" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1437" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1437" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1437" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1437" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1437" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1438" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1438" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1438" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1438" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1438" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1439" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1439" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1439" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1439" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1439" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1440" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1440" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1440" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1440" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1440" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1441" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1441" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1441" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1441" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1441" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1442" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1442" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1442" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1442" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1442" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1443" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1443" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1443" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1443" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1443" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1444" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1444" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1444" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1444" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1444" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1445" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1445" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1445" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1445" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1445" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1446" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1446" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1446" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1446" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1446" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1447" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1447" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1447" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1447" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1447" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1448" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1448" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1448" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1448" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1448" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1449" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1449" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1449" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1449" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1449" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1450" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1450" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1450" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1450" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1450" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1451" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1451" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1451" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1451" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1451" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1452" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1452" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1452" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="D1452" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1452" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1453" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1453" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1453" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="D1453" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1453" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1454" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1454" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1454" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="D1454" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1454" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1455" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1455" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1455" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1455" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1455" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1456" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1456" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1456" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1456" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1456" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1457" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1457" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1457" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1457" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1457" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1458" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1458" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1458" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1458" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1458" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1459" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1459" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1459" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1459" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1459" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1460" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1460" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1460" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1460" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1460" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1461" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1461" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1461" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1461" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1461" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1462" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1462" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1462" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1462" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1462" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1463" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1463" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1463" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1463" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1463" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1464" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1464" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1464" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1464" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1464" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1465" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1465" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1465" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1465" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1465" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1466" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1466" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1466" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1466" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1466" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1467" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1467" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1467" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1467" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1467" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1468" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1468" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1468" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1468" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1468" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1469" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1469" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1469" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1469" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1469" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1470" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1470" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1470" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1470" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1470" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1471" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1471" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1471" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1471" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1471" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1472" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1472" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1472" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1472" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1472" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1473" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1473" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1473" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1473" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1473" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1474" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1474" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1474" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1474" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1474" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1475" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1475" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1475" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1475" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1475" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1476" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1476" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1476" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1476" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1476" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22529,14 +25524,12 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="1:1 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22558,7 +25551,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -22575,7 +25568,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>8</v>
@@ -22592,7 +25585,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
@@ -22609,7 +25602,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -22626,7 +25619,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
@@ -22643,7 +25636,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>11</v>
@@ -22660,7 +25653,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>13</v>
@@ -22677,7 +25670,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>12</v>
@@ -22694,7 +25687,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>14</v>
@@ -22711,7 +25704,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>15</v>
@@ -22728,7 +25721,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>16</v>
@@ -22745,7 +25738,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>17</v>
@@ -22762,7 +25755,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>18</v>
@@ -22779,7 +25772,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>19</v>
@@ -22796,7 +25789,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>20</v>
@@ -22813,7 +25806,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>21</v>
@@ -22830,7 +25823,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>22</v>
@@ -22847,7 +25840,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>23</v>
@@ -22864,7 +25857,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>24</v>
@@ -22881,7 +25874,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>25</v>
@@ -22898,7 +25891,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>26</v>
@@ -22915,7 +25908,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>27</v>
@@ -22932,7 +25925,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>28</v>
@@ -22949,7 +25942,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>29</v>
@@ -22966,7 +25959,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>30</v>
@@ -23000,13 +25993,10 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="1" sqref="1:1 E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -23364,16 +26354,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
+      <selection pane="topLeft" activeCell="D53" activeCellId="1" sqref="1:1 D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -24087,6 +27074,210 @@
       </c>
       <c r="E42" s="0" t="n">
         <v>47</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/casos.xlsx
+++ b/data/casos.xlsx
@@ -13,6 +13,9 @@
     <sheet name="reporte_fix" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="reporte_matutino" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">reporte_vespertino!$A$1:$E$1726</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3726" uniqueCount="100">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -292,6 +295,36 @@
     <t xml:space="preserve">2020-04-30</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-10</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-XX-XX</t>
   </si>
 </sst>
@@ -303,7 +336,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -324,6 +357,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -368,7 +408,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -381,16 +421,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,19 +446,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1476"/>
+  <dimension ref="A1:E1726"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3:E628"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24703,7 +24752,7 @@
         <v>3</v>
       </c>
       <c r="E1429" s="0" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25128,7 +25177,7 @@
         <v>1</v>
       </c>
       <c r="E1454" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25505,7 +25554,4258 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1477" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1477" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1477" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="D1477" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1477" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1478" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1478" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1478" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D1478" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1478" s="0" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1479" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1479" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1479" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="D1479" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1479" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1480" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1480" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1480" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1480" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1480" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1481" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1481" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1481" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1481" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1481" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1482" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1482" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1482" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1482" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1482" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1483" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1483" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1483" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1483" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1483" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1484" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1484" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1484" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1484" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1484" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1485" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1485" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1485" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1485" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1485" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1486" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1486" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1486" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1486" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1486" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1487" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1487" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1487" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1487" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1487" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1488" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1488" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1488" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1488" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1488" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1489" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1489" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1489" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1489" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1489" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1490" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1490" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1490" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1490" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1490" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1491" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1491" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1491" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1491" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1491" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1492" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1492" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1492" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1492" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1492" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1493" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1493" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1493" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1493" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1493" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1494" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1494" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1494" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1494" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1494" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1495" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1495" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1495" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1495" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1495" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1496" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1496" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1496" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1496" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1496" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1497" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1497" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1497" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1497" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1497" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1498" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1498" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1498" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1498" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1498" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1499" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1499" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1499" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1499" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1499" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1500" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1500" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1500" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1500" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1500" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1501" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1501" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1501" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1501" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1501" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1502" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1502" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1502" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="D1502" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1502" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1503" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1503" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1503" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="D1503" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1503" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1504" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1504" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1504" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="D1504" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1504" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1505" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1505" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1505" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1505" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1505" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1506" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1506" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1506" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1506" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1506" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1507" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1507" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1507" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1507" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1507" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1508" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1508" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1508" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1508" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1508" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1509" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1509" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1509" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1509" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1509" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1510" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1510" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1510" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1510" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1510" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1511" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1511" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1511" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1511" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1511" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1512" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1512" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1512" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1512" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1512" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1513" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1513" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1513" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1513" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1513" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1514" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1514" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1514" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1514" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1514" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1515" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1515" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1515" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1515" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1515" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1516" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1516" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1516" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1516" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1516" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1517" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1517" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1517" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1517" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1517" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1518" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1518" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1518" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1518" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1518" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1519" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1519" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1519" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1519" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1519" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1520" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1520" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1520" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1520" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1520" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1521" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1521" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1521" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1521" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1521" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1522" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1522" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1522" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1522" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1522" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1523" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1523" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1523" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1523" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1523" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1524" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1524" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1524" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1524" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1524" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1525" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1525" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1525" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1525" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1525" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1526" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1526" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1526" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1526" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1526" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1527" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1527" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1527" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="D1527" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1527" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1528" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1528" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1528" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D1528" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1528" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1529" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1529" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1529" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="D1529" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1529" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1530" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1530" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1530" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1530" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1530" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1531" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1531" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1531" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1531" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1531" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1532" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1532" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1532" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1532" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1532" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1533" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1533" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1533" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1533" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1533" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1534" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1534" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1534" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1534" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1534" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1535" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1535" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1535" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1535" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1535" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1536" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1536" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1536" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1536" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1536" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1537" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1537" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1537" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1537" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1537" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1538" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1538" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1538" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1538" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1538" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1539" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1539" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1539" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1539" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1539" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1540" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1540" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1540" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1540" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1540" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1541" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1541" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1541" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1541" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1541" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1542" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1542" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1542" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1542" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1542" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1543" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1543" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1543" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1543" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1543" s="0" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1544" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1544" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1544" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1544" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1544" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1545" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1545" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1545" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1545" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1545" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1546" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1546" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1546" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1546" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1546" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1547" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1547" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1547" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1547" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1547" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1548" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1548" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1548" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1548" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1548" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1549" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1549" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1549" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1549" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1549" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1550" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1550" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1550" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1550" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1550" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1551" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1551" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1551" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1551" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1551" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1552" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1552" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1552" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="D1552" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1552" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1553" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1553" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1553" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D1553" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1553" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1554" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1554" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1554" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="D1554" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1554" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1555" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1555" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1555" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1555" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1555" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1556" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1556" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1556" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1556" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1556" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1557" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1557" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1557" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1557" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1557" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1558" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1558" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1558" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1558" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1558" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1559" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1559" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1559" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1559" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1559" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1560" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1560" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1560" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1560" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1560" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1561" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1561" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1561" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1561" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1561" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1562" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1562" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1562" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1562" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1562" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1563" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1563" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1563" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1563" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1563" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1564" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1564" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1564" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1564" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1564" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1565" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1565" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1565" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1565" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1565" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1566" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1566" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1566" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1566" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1566" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1567" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1567" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1567" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1567" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1567" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1568" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1568" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1568" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1568" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1568" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1569" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1569" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1569" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1569" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1569" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1570" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1570" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1570" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1570" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1570" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1571" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1571" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1571" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1571" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1571" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1572" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1572" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1572" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1572" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1572" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1573" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1573" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1573" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1573" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1573" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1574" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1574" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1574" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1574" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1574" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1575" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1575" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1575" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1575" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1575" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1576" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1576" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1576" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1576" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1576" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1577" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1577" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1577" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="D1577" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1577" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1578" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1578" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1578" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="D1578" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1578" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1579" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1579" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1579" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="D1579" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1579" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1580" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1580" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1580" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1580" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1580" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1581" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1581" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1581" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1581" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1581" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1582" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1582" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1582" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1582" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1582" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1583" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1583" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1583" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1583" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1583" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1584" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1584" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1584" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1584" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1584" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1585" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1585" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1585" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1585" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1585" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1586" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1586" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1586" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1586" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1586" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1587" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1587" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1587" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1587" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1587" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1588" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1588" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1588" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1588" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1588" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1589" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1589" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1589" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1589" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1589" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1590" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1590" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1590" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1590" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1590" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1591" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1591" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1591" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1591" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1591" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1592" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1592" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1592" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1592" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1592" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1593" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1593" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1593" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1593" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1593" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1594" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1594" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1594" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1594" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1594" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1595" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1595" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1595" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1595" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1595" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1596" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1596" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1596" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1596" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1596" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1597" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1597" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1597" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1597" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1597" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1598" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1598" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1598" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1598" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1598" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1599" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1599" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1599" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1599" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1599" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1600" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1600" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1600" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1600" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1600" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1601" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1601" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1601" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1601" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1601" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1602" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1602" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1602" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="D1602" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1602" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1603" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1603" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1603" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="D1603" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1603" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1604" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1604" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1604" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="D1604" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1604" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1605" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1605" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1605" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1605" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1605" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1606" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1606" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1606" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1606" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1606" s="0" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1607" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1607" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1607" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1607" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1607" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1608" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1608" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1608" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1608" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1608" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1609" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1609" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1609" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1609" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1609" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1610" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1610" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1610" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1610" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1610" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1611" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1611" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1611" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1611" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1611" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1612" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1612" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1612" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1612" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1612" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1613" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1613" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1613" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1613" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1613" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1614" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1614" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1614" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1614" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1614" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1615" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1615" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1615" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1615" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1615" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1616" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1616" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1616" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1616" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1616" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1617" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1617" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1617" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1617" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1617" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1618" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1618" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1618" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1618" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1618" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1619" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1619" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1619" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1619" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1619" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1620" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1620" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1620" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1620" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1620" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1621" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1621" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1621" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1621" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1621" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1622" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1622" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1622" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1622" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1622" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1623" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1623" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1623" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1623" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1623" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1624" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1624" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1624" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1624" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1624" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1625" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1625" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1625" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1625" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1625" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1626" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1626" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1626" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1626" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1626" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1627" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1627" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1627" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="D1627" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1627" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1628" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1628" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1628" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D1628" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1628" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1629" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1629" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1629" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="D1629" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1629" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1630" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1630" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1630" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1630" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1630" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1631" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1631" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1631" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="D1631" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1631" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1632" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1632" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1632" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1632" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1632" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1633" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1633" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1633" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1633" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1633" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1634" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1634" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1634" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1634" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1634" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1635" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1635" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1635" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1635" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1635" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1636" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1636" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1636" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1636" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1636" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1637" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1637" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1637" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1637" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1637" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1638" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1638" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1638" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1638" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1638" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1639" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1639" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1639" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1639" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1639" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1640" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1640" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1640" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1640" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1640" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1641" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1641" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1641" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1641" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1641" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1642" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1642" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1642" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1642" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1642" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1643" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1643" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1643" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1643" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1643" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1644" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1644" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1644" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1644" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1644" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1645" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1645" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1645" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1645" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1645" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1646" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1646" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1646" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1646" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1646" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1647" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1647" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1647" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1647" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1647" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1648" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1648" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1648" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1648" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1648" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1649" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1649" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1649" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1649" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1649" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1650" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1650" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1650" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1650" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1650" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1651" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1651" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1651" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1651" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1651" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1652" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1652" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1652" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="D1652" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1652" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1653" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1653" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1653" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="D1653" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1653" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1654" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1654" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1654" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D1654" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1654" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1655" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1655" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1655" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1655" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1655" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1656" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1656" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1656" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="D1656" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1656" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1657" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1657" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1657" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1657" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1657" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1658" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1658" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1658" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1658" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1658" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1659" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1659" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1659" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1659" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1659" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1660" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1660" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1660" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1660" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1660" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1661" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1661" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1661" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1661" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1661" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1662" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1662" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1662" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1662" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1662" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1663" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1663" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1663" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1663" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1663" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1664" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1664" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1664" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1664" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1664" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1665" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1665" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1665" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1665" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1665" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1666" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1666" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1666" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1666" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1666" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1667" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1667" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1667" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1667" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1667" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1668" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1668" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1668" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1668" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1668" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1669" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1669" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1669" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1669" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1669" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1670" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1670" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1670" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1670" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1670" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1671" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1671" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1671" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1671" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1671" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1672" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1672" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1672" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1672" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1672" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1673" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1673" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1673" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1673" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1673" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1674" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1674" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1674" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1674" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1674" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1675" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1675" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1675" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1675" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1675" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1676" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1676" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1676" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1676" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1676" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1677" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1677" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1677" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="D1677" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1677" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1678" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1678" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1678" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D1678" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1678" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1679" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1679" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1679" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="D1679" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1679" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1680" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1680" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1680" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1680" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1680" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1681" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1681" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1681" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1681" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1681" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1682" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1682" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1682" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1682" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1682" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1683" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1683" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1683" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1683" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1683" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1684" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1684" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1684" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1684" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1684" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1685" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1685" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1685" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1685" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1685" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1686" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1686" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1686" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1686" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1686" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1687" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1687" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1687" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1687" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1687" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1688" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1688" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1688" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1688" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1688" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1689" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1689" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1689" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1689" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1689" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1690" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1690" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1690" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1690" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1690" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1691" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1691" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1691" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1691" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1691" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1692" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1692" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1692" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1692" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1692" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1693" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1693" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1693" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1693" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1693" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1694" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1694" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1694" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1694" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1694" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1695" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1695" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1695" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1695" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1695" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1696" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1696" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1696" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1696" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1696" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1697" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1697" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1697" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1697" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1697" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1698" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1698" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1698" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1698" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1698" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1699" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1699" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1699" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1699" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1699" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1700" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1700" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1700" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1700" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1700" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1701" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1701" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1701" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1701" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1701" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1702" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1702" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1702" s="0" t="n">
+        <v>258</v>
+      </c>
+      <c r="D1702" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1702" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1703" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1703" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1703" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="D1703" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1703" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1704" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1704" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1704" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="D1704" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1704" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1705" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1705" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1705" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1705" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1705" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1706" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1706" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1706" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="D1706" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1706" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1707" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1707" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1707" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1707" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1707" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1708" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1708" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1708" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1708" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1708" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1709" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1709" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1709" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1709" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1709" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1710" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1710" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1710" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1710" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1710" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1711" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1711" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1711" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1711" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1711" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1712" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1712" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1712" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1712" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1712" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1713" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1713" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1713" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1713" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1713" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1714" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1714" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1714" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1714" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1714" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1715" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1715" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1715" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1715" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1715" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1716" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1716" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1716" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1716" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1716" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1717" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1717" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1717" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1717" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1717" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1718" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1718" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1718" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1718" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1718" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1719" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1719" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1719" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1719" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1719" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1720" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1720" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1720" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1720" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1720" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1721" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1721" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1721" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1721" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1721" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1722" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1722" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1722" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1722" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1722" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1723" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1723" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1723" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1723" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1723" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1724" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1724" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1724" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1724" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1724" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1725" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1725" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1725" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1725" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1725" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1726" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1726" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1726" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1726" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1726" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E1726"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -25513,6 +29813,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -25524,12 +29825,14 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="1:1 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E3:E628 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25551,7 +29854,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -25568,7 +29871,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>8</v>
@@ -25585,7 +29888,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
@@ -25602,7 +29905,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -25619,7 +29922,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
@@ -25636,7 +29939,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>11</v>
@@ -25653,7 +29956,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>13</v>
@@ -25670,7 +29973,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>12</v>
@@ -25687,7 +29990,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>14</v>
@@ -25704,7 +30007,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>15</v>
@@ -25721,7 +30024,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>16</v>
@@ -25738,7 +30041,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>17</v>
@@ -25755,7 +30058,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>18</v>
@@ -25772,7 +30075,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>19</v>
@@ -25789,7 +30092,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>20</v>
@@ -25806,7 +30109,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>21</v>
@@ -25823,7 +30126,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>22</v>
@@ -25840,7 +30143,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>23</v>
@@ -25857,7 +30160,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>24</v>
@@ -25874,7 +30177,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>25</v>
@@ -25891,7 +30194,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>26</v>
@@ -25908,7 +30211,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>27</v>
@@ -25925,7 +30228,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>28</v>
@@ -25942,7 +30245,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>29</v>
@@ -25959,7 +30262,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>30</v>
@@ -25990,13 +30293,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="1" sqref="1:1 E20"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="1" sqref="E3:E628 A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.54"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -26335,6 +30641,109 @@
         <v>0</v>
       </c>
       <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26354,13 +30763,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D53" activeCellId="1" sqref="1:1 D53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A80" activeCellId="1" sqref="E3:E628 A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.54"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -27278,6 +31690,431 @@
       </c>
       <c r="E54" s="0" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
